--- a/biology/Botanique/Sarocladium_oryzae/Sarocladium_oryzae.xlsx
+++ b/biology/Botanique/Sarocladium_oryzae/Sarocladium_oryzae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarocladium oryzae est une espèce de champignons ascomycètes de la famille des Sarocladiaceae, à répartition quasi-cosmopolite. Ce champignon est l'agent de la pourriture de la gaine chez le riz (Oryza sativa).
 </t>
@@ -511,12 +523,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première description par le botaniste japonais, Kaneyoshi Sawada, en 1922 sous le nom d’Acrocylindrium oryzae (basionyme) et publié dans Rep. Dept Agric., Govern. Res. Inst. Formosa, Spec. Bull. Agric. Exp. Station Formosa 2: 135.
-Le nom actuel a été attribué en 1975 par Konrad Walter Gams &amp; David Leslie Hawksworth et publié dans Kavaka 3: 58 (Transactions of the Mycological Society of India)[1]. 
-Synonymes
-Selon BioLib                    (16 juin 2021)[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Première description par le botaniste japonais, Kaneyoshi Sawada, en 1922 sous le nom d’Acrocylindrium oryzae (basionyme) et publié dans Rep. Dept Agric., Govern. Res. Inst. Formosa, Spec. Bull. Agric. Exp. Station Formosa 2: 135.
+Le nom actuel a été attribué en 1975 par Konrad Walter Gams &amp; David Leslie Hawksworth et publié dans Kavaka 3: 58 (Transactions of the Mycological Society of India). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarocladium_oryzae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarocladium_oryzae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 juin 2021) : 
 Acrocylindrium oryzae Sawada
 Sarocladium attenuatum W. Gams &amp; D. Hawksw.</t>
         </is>
